--- a/Tile IDs.xlsx
+++ b/Tile IDs.xlsx
@@ -366,45 +366,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3" tint="0.79998168889431442"/>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -721,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,16 +2355,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576 F7">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"L"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2413,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C61"/>
+  <dimension ref="B2:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2386,7 @@
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -2432,7 +2394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -2440,7 +2402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -2448,7 +2410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -2456,7 +2418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -2464,7 +2426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -2472,7 +2434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -2480,7 +2442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -2488,7 +2450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -2496,7 +2458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -2504,7 +2466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -2512,7 +2474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -2520,7 +2482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -2528,23 +2490,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -2552,356 +2520,513 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>8103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>8202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>8203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>8302</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>8403</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>8405</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>8502</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>8610</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>8620</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>8708</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>8802</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>8902</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>49</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>8904</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>50</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>51</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>52</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>51</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>52</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>51</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>9101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>52</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
+      </c>
+      <c r="I61">
+        <v>9102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>9103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>9105</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>9107</v>
       </c>
     </row>
   </sheetData>
